--- a/InputFiles/CCDI/TC01_CCDI_phs003432_Diagnos-9837.3Tlymphleuklymph_Sex-Female_LastKnSurvSt-Dead-LibrSelect-PolyA.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs003432_Diagnos-9837.3Tlymphleuklymph_Sex-Female_LastKnSurvSt-Dead-LibrSelect-PolyA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296C6CA3-5959-4DC1-AEAE-4FF316352F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA1F75-9A47-498B-903E-86DA0C054165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="31155" yWindow="15" windowWidth="17010" windowHeight="14865" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,12 @@
 left join funding f on s.study_id = f.study </t>
   </si>
   <si>
+    <t>TC01_CCDI_phs003432_Diagnos-9837.3Tlymphleuklymph_Sex-Female_LastKnSurvSt-Dead-LibrSelect-PolyA_TSVData.xlsx</t>
+  </si>
+  <si>
+    <t>TC01_CCDI_phs003432_Diagnos-9837.3Tlymphleuklymph_Sex-Female_LastKnSurvSt-Dead-LibrSelect-PolyA_WebData.xlsx</t>
+  </si>
+  <si>
     <t>WITH all_samples AS (
     -- Direct samples
     SELECT smp.id AS sample_id, prt.id AS participant_id, std.dbgap_accession, std.study_name, std.study_status, prt.sex_at_birth, prt.race
@@ -144,8 +150,7 @@
    AND diag.diagnosis = '9837/3 : T lymphoblastic leukemia/lymphoma' 
     AND surv.last_known_survival_status = 'Dead'
 and seq.library_selection = 'PolyA'	
-and s.sex_at_birth = 'Female'
-and s.study_name = 'Identification and Targeting of Treatment Resistant Progenitor Populations in T-cell Acute Lymphoblastic';</t>
+and s.sex_at_birth = 'Female';</t>
   </si>
   <si>
     <t>WITH diagnosis_summary AS (
@@ -193,12 +198,10 @@
     AND srv.last_known_survival_status = 'Dead'
 and seq.library_selection = 'PolyA'	
 and prt.sex_at_birth = 'Female'
-and std.study_name = 'Identification and Targeting of Treatment Resistant Progenitor Populations in T-cell Acute Lymphoblastic'
-ORDER BY prt.participant_id ASC
-;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
+ORDER BY prt.participant_id ASC;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT DISTINCT
     smp.sample_id AS "Sample ID",
     prt.participant_id AS "Participant ID",
     std.dbgap_accession AS "Study ID",
@@ -209,7 +212,10 @@
     END AS "Age at Sample Collection (days)",
     COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
     COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
-    dgn.diagnosis AS "Sample Diagnosis"
+      CASE
+        WHEN dgn."sample.id" IS NOT NULL THEN dgn.diagnosis
+        ELSE NULL
+    END AS "Sample Diagnosis"
 FROM
     df_sample smp
 LEFT JOIN df_participant prt ON smp."participant.id" = prt.id
@@ -236,7 +242,10 @@
     END AS "Age at Sample Collection (days)",
     COALESCE(pdx_smp.sample_tumor_status, '') AS "Sample Tumor Status",
     COALESCE(pdx_smp.tumor_classification, '') AS "Sample Tumor Classification",
-    dgn.diagnosis AS "Sample Diagnosis"
+    CASE
+        WHEN dgn."sample.id" IS NOT NULL THEN dgn.diagnosis
+        ELSE NULL
+    END AS "Sample Diagnosis"
 FROM
     df_sample pdx_smp
 LEFT JOIN df_pdx pdx ON pdx_smp."pdx.id" = pdx.id
@@ -251,65 +260,53 @@
     AND dgn.diagnosis = '9837/3 : T lymphoblastic leukemia/lymphoma'
     AND srv.last_known_survival_status = 'Dead'
     AND prt.sex_at_birth = 'Female'
-    AND std.study_name = 'Identification and Targeting of Treatment Resistant Progenitor Populations in T-cell Acute Lymphoblastic'</t>
+ </t>
   </si>
   <si>
     <t>WITH file_data AS (
     SELECT 
-        f.file_name, 
-        f.data_category,
-        f.file_type, 
-        f.file_size,
-        f.file_access,  
-        f.file_description,
-        f."sample.id" AS sample_id  -- Make sure to refer to the sample ID here
+        sf.file_name, 
+        sf.data_category,
+        sf.file_type, 
+        sf.file_size,
+        sf.file_access,  
+        COALESCE(sf.file_description, '') AS file_description,
+        sf."sample.id" AS sample_id
     FROM 
-        df_sequencing_file f
-    JOIN df_sample s ON f."sample.id" = s.id  -- Properly join with df_sample on sample.id
-),
-sample_data1 AS (
-    SELECT 
-        prt.participant_id,  -- Directly select participant_id
-        GROUP_CONCAT(smp1.id, ',' ORDER BY smp1.id) AS samples,  -- Concatenate sample IDs
-        prt."study.id" AS study,
-        s.sample_id
-    FROM 
-        df_sample smp
-    LEFT JOIN df_pdx pdx ON smp."pdx.id" = pdx.id
-    LEFT JOIN df_sample smp1 ON pdx."sample.id" = smp1.id  -- Join smp1 properly to get sample IDs
-    LEFT JOIN df_participant prt ON smp1."participant.id" = prt.id
-    LEFT JOIN df_diagnosis dgn ON prt.id = dgn."participant.id"
-    LEFT JOIN df_survival srv ON prt.id = srv."participant.id"
-    LEFT JOIN df_sequencing_file f ON smp1.id = f."sample.id"  -- Join sequencing files here
-    WHERE
-        dgn.diagnosis = '9837/3 : T lymphoblastic leukemia/lymphoma'
-        AND srv.last_known_survival_status = 'Dead'
-        AND prt.sex_at_birth = 'Female'
-    GROUP BY prt.participant_id, prt."study.id", s.sample_id
+        df_sequencing_file sf
 ),
 sample_data AS (
     SELECT 
-        prt.participant_id,  -- Directly select participant_id
-        GROUP_CONCAT(smp1.id, ',' ORDER BY smp1.id) AS samples,  -- Concatenate sample IDs
-        prt."study.id" AS study,
-        s.sample_id
-    FROM 
-        df_sample smp
-    LEFT JOIN df_sample smp1 ON smp.id = smp1.id  -- Join smp1 correctly for sample IDs
-    LEFT JOIN df_participant prt ON smp1."participant.id" = prt.id
-    LEFT JOIN df_diagnosis dgn ON prt.id = dgn."participant.id"
-    LEFT JOIN df_survival srv ON prt.id = srv."participant.id"
-    LEFT JOIN df_sequencing_file f ON smp1.id = f."sample.id"  -- Join sequencing files here
-    WHERE
-        dgn.diagnosis = '9837/3 : T lymphoblastic leukemia/lymphoma'
-        AND srv.last_known_survival_status = 'Dead'
-        AND prt.sex_at_birth = 'Female'
-    GROUP BY prt.participant_id, prt."study.id", s.sample_id
+        smp.id AS sample_id,
+        prt.participant_id,
+        prt."study.id" AS study_id,
+        prt.id AS participant_db_id,
+        -- Combine primary + pdx samples
+        GROUP_CONCAT(DISTINCT smp.sample_id) AS primary_samples,
+        GROUP_CONCAT(DISTINCT smp_pdx.sample_id) AS pdx_samples
+    FROM df_sample smp
+    LEFT JOIN df_pdx pdx ON smp.id = pdx."sample.id"
+    LEFT JOIN df_sample smp_pdx ON pdx."sample.id" = smp_pdx.id
+    LEFT JOIN df_participant prt ON smp."participant.id" = prt.id
+    GROUP BY smp.id, prt.participant_id, prt."study.id", prt.id
+),
+combined_samples AS (
+    SELECT 
+        sd.study_id,
+        sd.participant_id,
+        sd.participant_db_id,
+        sd.sample_id,
+        CASE 
+            WHEN sd.pdx_samples IS NOT NULL AND sd.pdx_samples != '' 
+                THEN sd.primary_samples || ',' || sd.pdx_samples
+            ELSE sd.primary_samples 
+        END AS samples_combined
+    FROM sample_data sd
 )
-SELECT 
+SELECT DISTINCT
     fd.file_name AS "File Name",
     fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
+    fd.file_description AS "File Description",
     fd.file_type AS "File Type",
     CASE
         WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN
@@ -339,63 +336,21 @@
     END AS "File Size",
     fd.file_access AS "File Access",
     std.dbgap_accession AS "Study ID",
-    sd.participant_id AS "Participant ID",
-    GROUP_CONCAT(sd.samples, ',') AS "Sample ID"  -- Concatenate sample IDs by participant
+    cs.participant_id AS "Participant ID",
+    cs.samples_combined AS "Sample ID"    
 FROM 
-    df_study std
-LEFT JOIN sample_data sd ON std.id = sd.study
-JOIN file_data fd ON sd.sample_id = fd.sample_id  -- Join on sample_id
+    file_data fd
+JOIN combined_samples cs ON fd.sample_id = cs.sample_id
+JOIN df_participant prt ON cs.participant_db_id = prt.id
+JOIN df_diagnosis dgn ON dgn."participant.id" = prt.id
+JOIN df_survival srv ON srv."participant.id" = prt.id
+JOIN df_study std ON cs.study_id = std.id
 WHERE 
-    std.dbgap_accession = 'phs003432' AND std.study_name = 'Identification and Targeting of Treatment Resistant Progenitor Populations in T-cell Acute Lymphoblastic'
-UNION
-SELECT 
-    fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type",
-    CASE
-        WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN
-            CASE 
-                WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT)
-                THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-                ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-            END
-        WHEN fd.file_size &gt;= 1024 * 1024 THEN
-            CASE 
-                WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT)
-                THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-                ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
-            END
-        WHEN fd.file_size &gt;= 1024 THEN
-            CASE 
-                WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT)
-                THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-                ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
-            END
-        ELSE 
-            CASE 
-                WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT)
-                THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-                ELSE ROUND(fd.file_size, 2) || ' Bytes'
-            END
-    END AS "File Size",
-    fd.file_access AS "File Access",
-    std.dbgap_accession AS "Study ID",
-    sd1.participant_id AS "Participant ID",
-    GROUP_CONCAT(sd1.samples, ',') AS "Sample ID"  -- Concatenate sample IDs by participant
-FROM 
-    df_study std
-LEFT JOIN sample_data1 sd1 ON std.id = sd1.study
-JOIN file_data fd ON sd1.sample_id = fd.sample_id  -- Join on sample_id
-WHERE 
-    std.dbgap_accession = 'phs003432' AND std.study_name = 'Identification and Targeting of Treatment Resistant Progenitor Populations in T-cell Acute Lymphoblastic'
-ORDER BY "File Name" ASC;</t>
-  </si>
-  <si>
-    <t>TC01_CCDI_phs003432_Diagnos-9837.3Tlymphleuklymph_Sex-Female_LastKnSurvSt-Dead-LibrSelect-PolyA_TSVData.xlsx</t>
-  </si>
-  <si>
-    <t>TC01_CCDI_phs003432_Diagnos-9837.3Tlymphleuklymph_Sex-Female_LastKnSurvSt-Dead-LibrSelect-PolyA_WebData.xlsx</t>
+    std.dbgap_accession = 'phs003432'
+    AND dgn.diagnosis = '9837/3 : T lymphoblastic leukemia/lymphoma'
+    AND srv.last_known_survival_status = 'Dead'
+    AND prt.sex_at_birth = 'Female'
+        Order by fd.file_name limit 100;</t>
   </si>
 </sst>
 </file>
@@ -797,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,16 +786,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -857,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -866,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
